--- a/app/import/intro_event.xlsx
+++ b/app/import/intro_event.xlsx
@@ -1,30 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolgong-hyein/Documents/Workspace/love-pastel-py/app/import/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
-  </bookViews>
   <sheets>
-    <sheet name="songs" sheetId="1" r:id="rId1"/>
-    <sheet name="singers" sheetId="2" r:id="rId2"/>
-    <sheet name="types" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="songs" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="singers" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="types" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -34,12 +18,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -53,177 +31,176 @@
   </si>
   <si>
     <t>청춘(靑春)</t>
-  </si>
-  <si>
-    <t>홍재목</t>
-  </si>
-  <si>
-    <t>O.O.O</t>
   </si>
   <si>
     <t>한 뼘만큼 자란 내 마음이
 시가 되어 울리던 날들</t>
   </si>
   <si>
-    <t>참깨와 솜사탕</t>
+    <t>너와의 달밤을</t>
+  </si>
+  <si>
+    <t>우리의 밤을 상상하네 별빛 가득한
+꿈같은 그날을 그 너와의 달밤을</t>
+  </si>
+  <si>
+    <t>첫눈</t>
+  </si>
+  <si>
+    <t>이 세상에 눈으로 오는 날 바람결에 흩어져 간대도
+잡은 두 손 꼭 놓치지 말자 어디로든 함께 떠나자</t>
+  </si>
+  <si>
+    <t>Eyes on me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너와 나 사이는 망가졌지만 우리 사랑은 
+서로를 가질 수 없어 바라보기만 해 </t>
+  </si>
+  <si>
+    <t>텅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">텅 나의 외로운 마음속
+잔잔했던 호수에 깊은 파동이 생기고 </t>
   </si>
   <si>
     <t xml:space="preserve">가장 약한 모습이 모자란 결핍이 
 내겐 사랑이었고 봄이었던 시절 </t>
   </si>
   <si>
-    <t>이나래</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 사계절의 변화만큼이나 다채롭고 싱그러워 지칠 줄 모르는 &lt;b&gt;청춘&lt;/b&gt;과 닮아있습니다.</t>
-  </si>
-  <si>
-    <t>짙은</t>
-  </si>
-  <si>
-    <t>헤르쯔 아날로그</t>
-  </si>
-  <si>
-    <t>스트레이</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 &lt;b&gt;텅&lt;/b&gt; 빈 외로움을 채워줄 감각적인 유혹을 갈망하는 성향을 띄고 있습니다.</t>
+    <t>따뜻한 것</t>
+  </si>
+  <si>
+    <t>세상의 말들은 너무 닳고 닳아서
+그댄 그 말을 뱉길 주저하고 있나요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">텅 나의 텅 빈 동굴 속 
+고요했던 어둠을 밝혀주는 눈동자 </t>
+  </si>
+  <si>
+    <t>괜찮아 그대가 표현하지 않아도
+그대가 웃어주면 나는 알 수 있어요</t>
+  </si>
+  <si>
+    <t>공중일기(空中日記)</t>
+  </si>
+  <si>
+    <t>저 하늘을 건너 어디쯤 온 걸까
+수많은 밤을 지나온 순간 이제 너에게로</t>
+  </si>
+  <si>
+    <t>I really hope this thing is just a dream just a dream 
+I really want you feel easy with this feel easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너의 tongue 부드럽게 날 위로하네 
+그 물결 따라 천천히 번져가는 너의 향기 </t>
+  </si>
+  <si>
+    <t>아침이 와 이젠 사라져야 해 모든 게 녹아 흘러가겠지만
+어제 추던 그 춤을 기억해 다시 만나는 그날까지</t>
+  </si>
+  <si>
+    <t>세상 사람들은 그들이 정한 공식 속에
+우리를 넣고서 사랑이 아니라 해요</t>
+  </si>
+  <si>
+    <t>바람이 거세지면 어디론가 흩어져 함께했던 기억도 잊겠지
+바닥에 던져져서 다시 만나게 되면 그땐 나를 알는지</t>
   </si>
   <si>
     <t>다시 부서지는 저 바람처럼
 너를 그리고 간 저 별들처럼</t>
   </si>
   <si>
-    <t>당신의 36.5도는 말 한마디 웃음하나로 전해지는 사랑의 &lt;b&gt;따뜻한 것&lt;/b&gt;을 향하고 있습니다.</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 하늘의 구름을 통해 마음을 전하는 &lt;b&gt;공중일기(空中日記)&lt;/b&gt;처럼 섬세하군요.</t>
-  </si>
-  <si>
-    <t>텅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">텅 나의 텅 빈 동굴 속 
-고요했던 어둠을 밝혀주는 눈동자 </t>
-  </si>
-  <si>
-    <t>어둡고 고요한 밤과도 같은 진한 그리움을 간직한 당신의 36.5도는 &lt;b&gt;첫눈&lt;/b&gt;을 떠올리게 합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">텅 나의 외로운 마음속
-잔잔했던 호수에 깊은 파동이 생기고 </t>
-  </si>
-  <si>
-    <t>뜨겁도록 벅찬 사랑의 감정을 지닌 당신은 &lt;b&gt;너와의 달밤을&lt;/b&gt; 꿈꾸는 36.5도 낭만파이십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너의 tongue 부드럽게 날 위로하네 
-그 물결 따라 천천히 번져가는 너의 향기 </t>
-  </si>
-  <si>
-    <t>따뜻한 것</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 본능적이고 감각적인 성향을 지닌 &lt;b&gt;Eyes on me&lt;/b&gt;와 잘 어울리는군요.</t>
-  </si>
-  <si>
-    <t>세상의 말들은 너무 닳고 닳아서
-그댄 그 말을 뱉길 주저하고 있나요</t>
-  </si>
-  <si>
-    <t>세상 사람들은 그들이 정한 공식 속에
-우리를 넣고서 사랑이 아니라 해요</t>
-  </si>
-  <si>
-    <t>괜찮아 그대가 표현하지 않아도
-그대가 웃어주면 나는 알 수 있어요</t>
-  </si>
-  <si>
-    <t>공중일기(空中日記)</t>
-  </si>
-  <si>
-    <t>저 하늘을 건너 어디쯤 온 걸까
-수많은 밤을 지나온 순간 이제 너에게로</t>
+    <t>가도 가도 끝이 안 보이던 어둡고 캄캄했던 내 앞에
+한 번도 경험해 본 적 없던 사랑이 찾아온 거야</t>
+  </si>
+  <si>
+    <t>바람이 좋은 날 더 가까이 느껴지는 걸
+말하고 싶은 건 내 손끝을 따라가</t>
+  </si>
+  <si>
+    <t>Your eyes like hold me hold me 
+넌 우리 사이를 스쳐갔어 눈을 가리고 날 봤어</t>
+  </si>
+  <si>
+    <t>밑도 끝도 없이 날 찾아오는 시린 고독과 외로움도
+네가 내 곁에서 지켜준다면 훨씬 더 나을 거야</t>
   </si>
   <si>
     <t>내 주위에 맴도는 것들 가벼워지고
 내려앉은 작은 새가 전해주길</t>
   </si>
   <si>
-    <t>바람이 좋은 날 더 가까이 느껴지는 걸
-말하고 싶은 건 내 손끝을 따라가</t>
-  </si>
-  <si>
-    <t>첫눈</t>
-  </si>
-  <si>
-    <t>아침이 와 이젠 사라져야 해 모든 게 녹아 흘러가겠지만
-어제 추던 그 춤을 기억해 다시 만나는 그날까지</t>
-  </si>
-  <si>
-    <t>이 세상에 눈으로 오는 날 바람결에 흩어져 간대도
-잡은 두 손 꼭 놓치지 말자 어디로든 함께 떠나자</t>
-  </si>
-  <si>
-    <t>바람이 거세지면 어디론가 흩어져 함께했던 기억도 잊겠지
-바닥에 던져져서 다시 만나게 되면 그땐 나를 알는지</t>
-  </si>
-  <si>
-    <t>너와의 달밤을</t>
-  </si>
-  <si>
-    <t>우리의 밤을 상상하네 별빛 가득한
-꿈같은 그날을 그 너와의 달밤을</t>
-  </si>
-  <si>
-    <t>가도 가도 끝이 안 보이던 어둡고 캄캄했던 내 앞에
-한 번도 경험해 본 적 없던 사랑이 찾아온 거야</t>
-  </si>
-  <si>
-    <t>밑도 끝도 없이 날 찾아오는 시린 고독과 외로움도
-네가 내 곁에서 지켜준다면 훨씬 더 나을 거야</t>
-  </si>
-  <si>
-    <t>Eyes on me</t>
-  </si>
-  <si>
-    <t>Your eyes like hold me hold me 
-넌 우리 사이를 스쳐갔어 눈을 가리고 날 봤어</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너와 나 사이는 망가졌지만 우리 사랑은 
-서로를 가질 수 없어 바라보기만 해 </t>
-  </si>
-  <si>
-    <t>I really hope this thing is just a dream just a dream 
-I really want you feel easy with this feel easy</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>홍재목</t>
+  </si>
+  <si>
+    <t>O.O.O</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 사계절의 변화만큼이나 다채롭고 싱그러워 지칠 줄 모르는 &lt;b&gt;청춘&lt;/b&gt;과 닮아있습니다.</t>
+  </si>
+  <si>
+    <t>참깨와 솜사탕</t>
+  </si>
+  <si>
+    <t>이나래</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 &lt;b&gt;텅&lt;/b&gt; 빈 외로움을 채워줄 감각적인 유혹을 갈망하는 성향을 띄고 있습니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 말 한마디 웃음하나로 전해지는 사랑의 &lt;b&gt;따뜻한 것&lt;/b&gt;을 향하고 있습니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 하늘의 구름을 통해 마음을 전하는 &lt;b&gt;공중일기(空中日記)&lt;/b&gt;처럼 섬세하군요.</t>
+  </si>
+  <si>
+    <t>짙은</t>
+  </si>
+  <si>
+    <t>어둡고 고요한 밤과도 같은 진한 그리움을 간직한 당신의 36.5도는 &lt;b&gt;첫눈&lt;/b&gt;을 떠올리게 합니다.</t>
+  </si>
+  <si>
+    <t>헤르쯔 아날로그</t>
+  </si>
+  <si>
+    <t>뜨겁도록 벅찬 사랑의 감정을 지닌 당신은 &lt;b&gt;너와의 달밤을&lt;/b&gt; 꿈꾸는 36.5도 낭만파이십니다.</t>
+  </si>
+  <si>
+    <t>스트레이</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 본능적이고 감각적인 성향을 지닌 &lt;b&gt;Eyes on me&lt;/b&gt;와 잘 어울리는군요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -232,3801 +209,3543 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="16.29"/>
+    <col customWidth="1" min="3" max="3" width="46.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D21" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="1">
-        <v>7</v>
+        <v>4.0</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="65">
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="66">
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="67">
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="68">
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="69">
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="70">
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="71">
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="72">
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="73">
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="74">
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="75">
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="76">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="77">
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="78">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="79">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="80">
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="81">
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="82">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="83">
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="84">
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="85">
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="86">
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="87">
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="88">
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="89">
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="90">
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="91">
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="92">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="93">
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="94">
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="95">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="96">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="97">
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="98">
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="99">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="100">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="101">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="102">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="103">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="104">
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="105">
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="106">
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="107">
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="108">
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="109">
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="110">
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="111">
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="112">
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="113">
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="114">
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="115">
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="116">
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="117">
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="118">
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="119">
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="120">
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="121">
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="122">
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="123">
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="124">
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="125">
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="126">
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="127">
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="128">
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="129">
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="130">
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="131">
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="132">
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="133">
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="134">
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="135">
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="136">
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="137">
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="138">
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="139">
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="140">
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="141">
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="142">
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="143">
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="144">
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="145">
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="146">
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="147">
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="148">
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="149">
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="150">
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="151">
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="152">
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="153">
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="154">
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="155">
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="156">
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="157">
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="158">
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="159">
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="160">
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="161">
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="162">
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="163">
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="164">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="165">
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="166">
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="167">
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="168">
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="169">
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="170">
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="171">
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="172">
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="173">
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="174">
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="175">
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="176">
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="177">
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="178">
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="179">
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="180">
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="181">
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="182">
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="183">
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="184">
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="185">
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="186">
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="187">
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="188">
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="189">
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="190">
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="191">
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="192">
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="193">
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="194">
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="195">
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="196">
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="197">
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="198">
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="199">
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="200">
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="201">
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="202">
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="203">
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="204">
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="205">
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="206">
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="207">
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="208">
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="209">
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="210">
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="211">
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="212">
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="213">
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="214">
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="215">
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="216">
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="217">
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="218">
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="219">
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="220">
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="221">
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="222">
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="223">
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="224">
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="225">
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="226">
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="227">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="228">
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="229">
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="230">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="231">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="232">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="233">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="234">
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="235">
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="236">
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="237">
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="238">
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="239">
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="240">
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="241">
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="242">
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="243">
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="244">
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="245">
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="246">
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="247">
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="248">
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="249">
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="250">
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="251">
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="252">
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="253">
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="254">
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="255">
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="256">
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="257">
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="258">
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="259">
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="260">
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="261">
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="262">
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="263">
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="264">
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="265">
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="266">
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="267">
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="268">
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="269">
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="270">
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="271">
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="272">
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="273">
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="274">
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="275">
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="276">
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="277">
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="278">
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="279">
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="280">
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="281">
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="282">
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="283">
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="284">
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="285">
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="286">
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="287">
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="288">
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="289">
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="290">
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="291">
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="292">
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="293">
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="294">
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="295">
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="296">
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="297">
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="298">
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="299">
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="300">
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="301">
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="302">
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="303">
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="304">
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="305">
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="306">
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="307">
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="308">
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="309">
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="310">
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="311">
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="312">
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="313">
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="314">
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="315">
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="316">
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="317">
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="318">
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="319">
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="320">
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="321">
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="322">
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="323">
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="324">
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="325">
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="326">
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="327">
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="328">
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="329">
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="330">
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="331">
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="332">
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="333">
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="334">
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="335">
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="336">
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="337">
       <c r="C337" s="3"/>
     </row>
-    <row r="338" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="338">
       <c r="C338" s="3"/>
     </row>
-    <row r="339" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="339">
       <c r="C339" s="3"/>
     </row>
-    <row r="340" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="340">
       <c r="C340" s="3"/>
     </row>
-    <row r="341" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="341">
       <c r="C341" s="3"/>
     </row>
-    <row r="342" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="342">
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="343">
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="344">
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="345">
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="346">
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="347">
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="348">
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="349">
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="350">
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="351">
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="352">
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="353">
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="354">
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="355">
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="356">
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="357">
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="358">
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="359">
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="360">
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="361">
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="362">
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="363">
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="364">
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="365">
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="366">
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="367">
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="368">
       <c r="C368" s="3"/>
     </row>
-    <row r="369" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="369">
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="370">
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="371">
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="372">
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="373">
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="374">
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="375">
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="376">
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="377">
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="378">
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="379">
       <c r="C379" s="3"/>
     </row>
-    <row r="380" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="380">
       <c r="C380" s="3"/>
     </row>
-    <row r="381" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="381">
       <c r="C381" s="3"/>
     </row>
-    <row r="382" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="382">
       <c r="C382" s="3"/>
     </row>
-    <row r="383" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="383">
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="384">
       <c r="C384" s="3"/>
     </row>
-    <row r="385" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="385">
       <c r="C385" s="3"/>
     </row>
-    <row r="386" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="386">
       <c r="C386" s="3"/>
     </row>
-    <row r="387" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="387">
       <c r="C387" s="3"/>
     </row>
-    <row r="388" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="388">
       <c r="C388" s="3"/>
     </row>
-    <row r="389" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="389">
       <c r="C389" s="3"/>
     </row>
-    <row r="390" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="390">
       <c r="C390" s="3"/>
     </row>
-    <row r="391" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="391">
       <c r="C391" s="3"/>
     </row>
-    <row r="392" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="392">
       <c r="C392" s="3"/>
     </row>
-    <row r="393" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="393">
       <c r="C393" s="3"/>
     </row>
-    <row r="394" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="394">
       <c r="C394" s="3"/>
     </row>
-    <row r="395" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="395">
       <c r="C395" s="3"/>
     </row>
-    <row r="396" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="396">
       <c r="C396" s="3"/>
     </row>
-    <row r="397" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="397">
       <c r="C397" s="3"/>
     </row>
-    <row r="398" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="398">
       <c r="C398" s="3"/>
     </row>
-    <row r="399" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="399">
       <c r="C399" s="3"/>
     </row>
-    <row r="400" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="400">
       <c r="C400" s="3"/>
     </row>
-    <row r="401" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="401">
       <c r="C401" s="3"/>
     </row>
-    <row r="402" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="402">
       <c r="C402" s="3"/>
     </row>
-    <row r="403" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="403">
       <c r="C403" s="3"/>
     </row>
-    <row r="404" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="404">
       <c r="C404" s="3"/>
     </row>
-    <row r="405" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="405">
       <c r="C405" s="3"/>
     </row>
-    <row r="406" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="406">
       <c r="C406" s="3"/>
     </row>
-    <row r="407" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="407">
       <c r="C407" s="3"/>
     </row>
-    <row r="408" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="408">
       <c r="C408" s="3"/>
     </row>
-    <row r="409" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="409">
       <c r="C409" s="3"/>
     </row>
-    <row r="410" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="410">
       <c r="C410" s="3"/>
     </row>
-    <row r="411" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="411">
       <c r="C411" s="3"/>
     </row>
-    <row r="412" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="412">
       <c r="C412" s="3"/>
     </row>
-    <row r="413" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="413">
       <c r="C413" s="3"/>
     </row>
-    <row r="414" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="414">
       <c r="C414" s="3"/>
     </row>
-    <row r="415" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="415">
       <c r="C415" s="3"/>
     </row>
-    <row r="416" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="416">
       <c r="C416" s="3"/>
     </row>
-    <row r="417" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="417">
       <c r="C417" s="3"/>
     </row>
-    <row r="418" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="418">
       <c r="C418" s="3"/>
     </row>
-    <row r="419" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="419">
       <c r="C419" s="3"/>
     </row>
-    <row r="420" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="420">
       <c r="C420" s="3"/>
     </row>
-    <row r="421" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="421">
       <c r="C421" s="3"/>
     </row>
-    <row r="422" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="422">
       <c r="C422" s="3"/>
     </row>
-    <row r="423" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="423">
       <c r="C423" s="3"/>
     </row>
-    <row r="424" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="424">
       <c r="C424" s="3"/>
     </row>
-    <row r="425" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="425">
       <c r="C425" s="3"/>
     </row>
-    <row r="426" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="426">
       <c r="C426" s="3"/>
     </row>
-    <row r="427" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="427">
       <c r="C427" s="3"/>
     </row>
-    <row r="428" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="428">
       <c r="C428" s="3"/>
     </row>
-    <row r="429" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="429">
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="430">
       <c r="C430" s="3"/>
     </row>
-    <row r="431" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="431">
       <c r="C431" s="3"/>
     </row>
-    <row r="432" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="432">
       <c r="C432" s="3"/>
     </row>
-    <row r="433" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="433">
       <c r="C433" s="3"/>
     </row>
-    <row r="434" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="434">
       <c r="C434" s="3"/>
     </row>
-    <row r="435" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="435">
       <c r="C435" s="3"/>
     </row>
-    <row r="436" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="436">
       <c r="C436" s="3"/>
     </row>
-    <row r="437" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="437">
       <c r="C437" s="3"/>
     </row>
-    <row r="438" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="438">
       <c r="C438" s="3"/>
     </row>
-    <row r="439" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="439">
       <c r="C439" s="3"/>
     </row>
-    <row r="440" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="440">
       <c r="C440" s="3"/>
     </row>
-    <row r="441" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="441">
       <c r="C441" s="3"/>
     </row>
-    <row r="442" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="442">
       <c r="C442" s="3"/>
     </row>
-    <row r="443" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="443">
       <c r="C443" s="3"/>
     </row>
-    <row r="444" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="444">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="445">
       <c r="C445" s="3"/>
     </row>
-    <row r="446" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="446">
       <c r="C446" s="3"/>
     </row>
-    <row r="447" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="447">
       <c r="C447" s="3"/>
     </row>
-    <row r="448" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="448">
       <c r="C448" s="3"/>
     </row>
-    <row r="449" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="449">
       <c r="C449" s="3"/>
     </row>
-    <row r="450" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="450">
       <c r="C450" s="3"/>
     </row>
-    <row r="451" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="451">
       <c r="C451" s="3"/>
     </row>
-    <row r="452" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="452">
       <c r="C452" s="3"/>
     </row>
-    <row r="453" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="453">
       <c r="C453" s="3"/>
     </row>
-    <row r="454" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="454">
       <c r="C454" s="3"/>
     </row>
-    <row r="455" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="455">
       <c r="C455" s="3"/>
     </row>
-    <row r="456" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="456">
       <c r="C456" s="3"/>
     </row>
-    <row r="457" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="457">
       <c r="C457" s="3"/>
     </row>
-    <row r="458" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="458">
       <c r="C458" s="3"/>
     </row>
-    <row r="459" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="459">
       <c r="C459" s="3"/>
     </row>
-    <row r="460" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="460">
       <c r="C460" s="3"/>
     </row>
-    <row r="461" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="461">
       <c r="C461" s="3"/>
     </row>
-    <row r="462" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="462">
       <c r="C462" s="3"/>
     </row>
-    <row r="463" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="463">
       <c r="C463" s="3"/>
     </row>
-    <row r="464" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="464">
       <c r="C464" s="3"/>
     </row>
-    <row r="465" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="465">
       <c r="C465" s="3"/>
     </row>
-    <row r="466" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="466">
       <c r="C466" s="3"/>
     </row>
-    <row r="467" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="467">
       <c r="C467" s="3"/>
     </row>
-    <row r="468" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="468">
       <c r="C468" s="3"/>
     </row>
-    <row r="469" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="469">
       <c r="C469" s="3"/>
     </row>
-    <row r="470" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="470">
       <c r="C470" s="3"/>
     </row>
-    <row r="471" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="471">
       <c r="C471" s="3"/>
     </row>
-    <row r="472" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="472">
       <c r="C472" s="3"/>
     </row>
-    <row r="473" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="473">
       <c r="C473" s="3"/>
     </row>
-    <row r="474" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="474">
       <c r="C474" s="3"/>
     </row>
-    <row r="475" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="475">
       <c r="C475" s="3"/>
     </row>
-    <row r="476" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="476">
       <c r="C476" s="3"/>
     </row>
-    <row r="477" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="477">
       <c r="C477" s="3"/>
     </row>
-    <row r="478" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="478">
       <c r="C478" s="3"/>
     </row>
-    <row r="479" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="479">
       <c r="C479" s="3"/>
     </row>
-    <row r="480" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="480">
       <c r="C480" s="3"/>
     </row>
-    <row r="481" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="481">
       <c r="C481" s="3"/>
     </row>
-    <row r="482" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="482">
       <c r="C482" s="3"/>
     </row>
-    <row r="483" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="483">
       <c r="C483" s="3"/>
     </row>
-    <row r="484" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="484">
       <c r="C484" s="3"/>
     </row>
-    <row r="485" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="485">
       <c r="C485" s="3"/>
     </row>
-    <row r="486" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="486">
       <c r="C486" s="3"/>
     </row>
-    <row r="487" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="487">
       <c r="C487" s="3"/>
     </row>
-    <row r="488" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="488">
       <c r="C488" s="3"/>
     </row>
-    <row r="489" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="489">
       <c r="C489" s="3"/>
     </row>
-    <row r="490" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="490">
       <c r="C490" s="3"/>
     </row>
-    <row r="491" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="491">
       <c r="C491" s="3"/>
     </row>
-    <row r="492" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="492">
       <c r="C492" s="3"/>
     </row>
-    <row r="493" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="493">
       <c r="C493" s="3"/>
     </row>
-    <row r="494" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="494">
       <c r="C494" s="3"/>
     </row>
-    <row r="495" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="495">
       <c r="C495" s="3"/>
     </row>
-    <row r="496" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="496">
       <c r="C496" s="3"/>
     </row>
-    <row r="497" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="497">
       <c r="C497" s="3"/>
     </row>
-    <row r="498" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="498">
       <c r="C498" s="3"/>
     </row>
-    <row r="499" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="499">
       <c r="C499" s="3"/>
     </row>
-    <row r="500" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="500">
       <c r="C500" s="3"/>
     </row>
-    <row r="501" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="501">
       <c r="C501" s="3"/>
     </row>
-    <row r="502" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="502">
       <c r="C502" s="3"/>
     </row>
-    <row r="503" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="503">
       <c r="C503" s="3"/>
     </row>
-    <row r="504" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="504">
       <c r="C504" s="3"/>
     </row>
-    <row r="505" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="505">
       <c r="C505" s="3"/>
     </row>
-    <row r="506" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="506">
       <c r="C506" s="3"/>
     </row>
-    <row r="507" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="507">
       <c r="C507" s="3"/>
     </row>
-    <row r="508" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="508">
       <c r="C508" s="3"/>
     </row>
-    <row r="509" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="509">
       <c r="C509" s="3"/>
     </row>
-    <row r="510" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="510">
       <c r="C510" s="3"/>
     </row>
-    <row r="511" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="511">
       <c r="C511" s="3"/>
     </row>
-    <row r="512" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="512">
       <c r="C512" s="3"/>
     </row>
-    <row r="513" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="513">
       <c r="C513" s="3"/>
     </row>
-    <row r="514" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="514">
       <c r="C514" s="3"/>
     </row>
-    <row r="515" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="515">
       <c r="C515" s="3"/>
     </row>
-    <row r="516" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="516">
       <c r="C516" s="3"/>
     </row>
-    <row r="517" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="517">
       <c r="C517" s="3"/>
     </row>
-    <row r="518" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="518">
       <c r="C518" s="3"/>
     </row>
-    <row r="519" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="519">
       <c r="C519" s="3"/>
     </row>
-    <row r="520" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="520">
       <c r="C520" s="3"/>
     </row>
-    <row r="521" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="521">
       <c r="C521" s="3"/>
     </row>
-    <row r="522" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="522">
       <c r="C522" s="3"/>
     </row>
-    <row r="523" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="523">
       <c r="C523" s="3"/>
     </row>
-    <row r="524" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="524">
       <c r="C524" s="3"/>
     </row>
-    <row r="525" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="525">
       <c r="C525" s="3"/>
     </row>
-    <row r="526" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="526">
       <c r="C526" s="3"/>
     </row>
-    <row r="527" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="527">
       <c r="C527" s="3"/>
     </row>
-    <row r="528" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="528">
       <c r="C528" s="3"/>
     </row>
-    <row r="529" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="529">
       <c r="C529" s="3"/>
     </row>
-    <row r="530" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="530">
       <c r="C530" s="3"/>
     </row>
-    <row r="531" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="531">
       <c r="C531" s="3"/>
     </row>
-    <row r="532" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="532">
       <c r="C532" s="3"/>
     </row>
-    <row r="533" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="533">
       <c r="C533" s="3"/>
     </row>
-    <row r="534" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="534">
       <c r="C534" s="3"/>
     </row>
-    <row r="535" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="535">
       <c r="C535" s="3"/>
     </row>
-    <row r="536" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="536">
       <c r="C536" s="3"/>
     </row>
-    <row r="537" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="537">
       <c r="C537" s="3"/>
     </row>
-    <row r="538" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="538">
       <c r="C538" s="3"/>
     </row>
-    <row r="539" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="539">
       <c r="C539" s="3"/>
     </row>
-    <row r="540" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="540">
       <c r="C540" s="3"/>
     </row>
-    <row r="541" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="541">
       <c r="C541" s="3"/>
     </row>
-    <row r="542" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="542">
       <c r="C542" s="3"/>
     </row>
-    <row r="543" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="543">
       <c r="C543" s="3"/>
     </row>
-    <row r="544" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="544">
       <c r="C544" s="3"/>
     </row>
-    <row r="545" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="545">
       <c r="C545" s="3"/>
     </row>
-    <row r="546" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="546">
       <c r="C546" s="3"/>
     </row>
-    <row r="547" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="547">
       <c r="C547" s="3"/>
     </row>
-    <row r="548" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="548">
       <c r="C548" s="3"/>
     </row>
-    <row r="549" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="549">
       <c r="C549" s="3"/>
     </row>
-    <row r="550" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="550">
       <c r="C550" s="3"/>
     </row>
-    <row r="551" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="551">
       <c r="C551" s="3"/>
     </row>
-    <row r="552" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="552">
       <c r="C552" s="3"/>
     </row>
-    <row r="553" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="553">
       <c r="C553" s="3"/>
     </row>
-    <row r="554" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="554">
       <c r="C554" s="3"/>
     </row>
-    <row r="555" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="555">
       <c r="C555" s="3"/>
     </row>
-    <row r="556" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="556">
       <c r="C556" s="3"/>
     </row>
-    <row r="557" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="557">
       <c r="C557" s="3"/>
     </row>
-    <row r="558" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="558">
       <c r="C558" s="3"/>
     </row>
-    <row r="559" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="559">
       <c r="C559" s="3"/>
     </row>
-    <row r="560" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="560">
       <c r="C560" s="3"/>
     </row>
-    <row r="561" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="561">
       <c r="C561" s="3"/>
     </row>
-    <row r="562" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="562">
       <c r="C562" s="3"/>
     </row>
-    <row r="563" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="563">
       <c r="C563" s="3"/>
     </row>
-    <row r="564" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="564">
       <c r="C564" s="3"/>
     </row>
-    <row r="565" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="565">
       <c r="C565" s="3"/>
     </row>
-    <row r="566" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="566">
       <c r="C566" s="3"/>
     </row>
-    <row r="567" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="567">
       <c r="C567" s="3"/>
     </row>
-    <row r="568" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="568">
       <c r="C568" s="3"/>
     </row>
-    <row r="569" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="569">
       <c r="C569" s="3"/>
     </row>
-    <row r="570" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="570">
       <c r="C570" s="3"/>
     </row>
-    <row r="571" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="571">
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="572">
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="573">
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="574">
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="575">
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="576">
       <c r="C576" s="3"/>
     </row>
-    <row r="577" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="577">
       <c r="C577" s="3"/>
     </row>
-    <row r="578" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="578">
       <c r="C578" s="3"/>
     </row>
-    <row r="579" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="579">
       <c r="C579" s="3"/>
     </row>
-    <row r="580" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="580">
       <c r="C580" s="3"/>
     </row>
-    <row r="581" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="581">
       <c r="C581" s="3"/>
     </row>
-    <row r="582" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="582">
       <c r="C582" s="3"/>
     </row>
-    <row r="583" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="583">
       <c r="C583" s="3"/>
     </row>
-    <row r="584" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="584">
       <c r="C584" s="3"/>
     </row>
-    <row r="585" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="585">
       <c r="C585" s="3"/>
     </row>
-    <row r="586" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="586">
       <c r="C586" s="3"/>
     </row>
-    <row r="587" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="587">
       <c r="C587" s="3"/>
     </row>
-    <row r="588" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="588">
       <c r="C588" s="3"/>
     </row>
-    <row r="589" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="589">
       <c r="C589" s="3"/>
     </row>
-    <row r="590" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="590">
       <c r="C590" s="3"/>
     </row>
-    <row r="591" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="591">
       <c r="C591" s="3"/>
     </row>
-    <row r="592" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="592">
       <c r="C592" s="3"/>
     </row>
-    <row r="593" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="593">
       <c r="C593" s="3"/>
     </row>
-    <row r="594" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="594">
       <c r="C594" s="3"/>
     </row>
-    <row r="595" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="595">
       <c r="C595" s="3"/>
     </row>
-    <row r="596" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="596">
       <c r="C596" s="3"/>
     </row>
-    <row r="597" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="597">
       <c r="C597" s="3"/>
     </row>
-    <row r="598" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="598">
       <c r="C598" s="3"/>
     </row>
-    <row r="599" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="599">
       <c r="C599" s="3"/>
     </row>
-    <row r="600" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="600">
       <c r="C600" s="3"/>
     </row>
-    <row r="601" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="601">
       <c r="C601" s="3"/>
     </row>
-    <row r="602" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="602">
       <c r="C602" s="3"/>
     </row>
-    <row r="603" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="603">
       <c r="C603" s="3"/>
     </row>
-    <row r="604" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="604">
       <c r="C604" s="3"/>
     </row>
-    <row r="605" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="605">
       <c r="C605" s="3"/>
     </row>
-    <row r="606" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="606">
       <c r="C606" s="3"/>
     </row>
-    <row r="607" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="607">
       <c r="C607" s="3"/>
     </row>
-    <row r="608" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="608">
       <c r="C608" s="3"/>
     </row>
-    <row r="609" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="609">
       <c r="C609" s="3"/>
     </row>
-    <row r="610" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="610">
       <c r="C610" s="3"/>
     </row>
-    <row r="611" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="611">
       <c r="C611" s="3"/>
     </row>
-    <row r="612" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="612">
       <c r="C612" s="3"/>
     </row>
-    <row r="613" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="613">
       <c r="C613" s="3"/>
     </row>
-    <row r="614" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="614">
       <c r="C614" s="3"/>
     </row>
-    <row r="615" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="615">
       <c r="C615" s="3"/>
     </row>
-    <row r="616" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="616">
       <c r="C616" s="3"/>
     </row>
-    <row r="617" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="617">
       <c r="C617" s="3"/>
     </row>
-    <row r="618" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="618">
       <c r="C618" s="3"/>
     </row>
-    <row r="619" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="619">
       <c r="C619" s="3"/>
     </row>
-    <row r="620" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="620">
       <c r="C620" s="3"/>
     </row>
-    <row r="621" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="621">
       <c r="C621" s="3"/>
     </row>
-    <row r="622" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="622">
       <c r="C622" s="3"/>
     </row>
-    <row r="623" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="623">
       <c r="C623" s="3"/>
     </row>
-    <row r="624" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="624">
       <c r="C624" s="3"/>
     </row>
-    <row r="625" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="625">
       <c r="C625" s="3"/>
     </row>
-    <row r="626" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="626">
       <c r="C626" s="3"/>
     </row>
-    <row r="627" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="627">
       <c r="C627" s="3"/>
     </row>
-    <row r="628" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="628">
       <c r="C628" s="3"/>
     </row>
-    <row r="629" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="629">
       <c r="C629" s="3"/>
     </row>
-    <row r="630" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="630">
       <c r="C630" s="3"/>
     </row>
-    <row r="631" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="631">
       <c r="C631" s="3"/>
     </row>
-    <row r="632" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="632">
       <c r="C632" s="3"/>
     </row>
-    <row r="633" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="633">
       <c r="C633" s="3"/>
     </row>
-    <row r="634" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="634">
       <c r="C634" s="3"/>
     </row>
-    <row r="635" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="635">
       <c r="C635" s="3"/>
     </row>
-    <row r="636" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="636">
       <c r="C636" s="3"/>
     </row>
-    <row r="637" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="637">
       <c r="C637" s="3"/>
     </row>
-    <row r="638" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="638">
       <c r="C638" s="3"/>
     </row>
-    <row r="639" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="639">
       <c r="C639" s="3"/>
     </row>
-    <row r="640" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="640">
       <c r="C640" s="3"/>
     </row>
-    <row r="641" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="641">
       <c r="C641" s="3"/>
     </row>
-    <row r="642" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="642">
       <c r="C642" s="3"/>
     </row>
-    <row r="643" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="643">
       <c r="C643" s="3"/>
     </row>
-    <row r="644" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="644">
       <c r="C644" s="3"/>
     </row>
-    <row r="645" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="645">
       <c r="C645" s="3"/>
     </row>
-    <row r="646" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="646">
       <c r="C646" s="3"/>
     </row>
-    <row r="647" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="647">
       <c r="C647" s="3"/>
     </row>
-    <row r="648" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="648">
       <c r="C648" s="3"/>
     </row>
-    <row r="649" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="649">
       <c r="C649" s="3"/>
     </row>
-    <row r="650" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="650">
       <c r="C650" s="3"/>
     </row>
-    <row r="651" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="651">
       <c r="C651" s="3"/>
     </row>
-    <row r="652" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="652">
       <c r="C652" s="3"/>
     </row>
-    <row r="653" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="653">
       <c r="C653" s="3"/>
     </row>
-    <row r="654" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="654">
       <c r="C654" s="3"/>
     </row>
-    <row r="655" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="655">
       <c r="C655" s="3"/>
     </row>
-    <row r="656" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="656">
       <c r="C656" s="3"/>
     </row>
-    <row r="657" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="657">
       <c r="C657" s="3"/>
     </row>
-    <row r="658" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="658">
       <c r="C658" s="3"/>
     </row>
-    <row r="659" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="659">
       <c r="C659" s="3"/>
     </row>
-    <row r="660" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="660">
       <c r="C660" s="3"/>
     </row>
-    <row r="661" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="661">
       <c r="C661" s="3"/>
     </row>
-    <row r="662" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="662">
       <c r="C662" s="3"/>
     </row>
-    <row r="663" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="663">
       <c r="C663" s="3"/>
     </row>
-    <row r="664" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="664">
       <c r="C664" s="3"/>
     </row>
-    <row r="665" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="665">
       <c r="C665" s="3"/>
     </row>
-    <row r="666" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="666">
       <c r="C666" s="3"/>
     </row>
-    <row r="667" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="667">
       <c r="C667" s="3"/>
     </row>
-    <row r="668" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="668">
       <c r="C668" s="3"/>
     </row>
-    <row r="669" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="669">
       <c r="C669" s="3"/>
     </row>
-    <row r="670" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="670">
       <c r="C670" s="3"/>
     </row>
-    <row r="671" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="671">
       <c r="C671" s="3"/>
     </row>
-    <row r="672" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="672">
       <c r="C672" s="3"/>
     </row>
-    <row r="673" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="673">
       <c r="C673" s="3"/>
     </row>
-    <row r="674" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="674">
       <c r="C674" s="3"/>
     </row>
-    <row r="675" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="675">
       <c r="C675" s="3"/>
     </row>
-    <row r="676" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="676">
       <c r="C676" s="3"/>
     </row>
-    <row r="677" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="677">
       <c r="C677" s="3"/>
     </row>
-    <row r="678" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="678">
       <c r="C678" s="3"/>
     </row>
-    <row r="679" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="679">
       <c r="C679" s="3"/>
     </row>
-    <row r="680" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="680">
       <c r="C680" s="3"/>
     </row>
-    <row r="681" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="681">
       <c r="C681" s="3"/>
     </row>
-    <row r="682" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="682">
       <c r="C682" s="3"/>
     </row>
-    <row r="683" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="683">
       <c r="C683" s="3"/>
     </row>
-    <row r="684" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="684">
       <c r="C684" s="3"/>
     </row>
-    <row r="685" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="685">
       <c r="C685" s="3"/>
     </row>
-    <row r="686" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="686">
       <c r="C686" s="3"/>
     </row>
-    <row r="687" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="687">
       <c r="C687" s="3"/>
     </row>
-    <row r="688" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="688">
       <c r="C688" s="3"/>
     </row>
-    <row r="689" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="689">
       <c r="C689" s="3"/>
     </row>
-    <row r="690" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="690">
       <c r="C690" s="3"/>
     </row>
-    <row r="691" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="691">
       <c r="C691" s="3"/>
     </row>
-    <row r="692" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="692">
       <c r="C692" s="3"/>
     </row>
-    <row r="693" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="693">
       <c r="C693" s="3"/>
     </row>
-    <row r="694" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="694">
       <c r="C694" s="3"/>
     </row>
-    <row r="695" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="695">
       <c r="C695" s="3"/>
     </row>
-    <row r="696" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="696">
       <c r="C696" s="3"/>
     </row>
-    <row r="697" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="697">
       <c r="C697" s="3"/>
     </row>
-    <row r="698" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="698">
       <c r="C698" s="3"/>
     </row>
-    <row r="699" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="699">
       <c r="C699" s="3"/>
     </row>
-    <row r="700" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="700">
       <c r="C700" s="3"/>
     </row>
-    <row r="701" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="701">
       <c r="C701" s="3"/>
     </row>
-    <row r="702" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="702">
       <c r="C702" s="3"/>
     </row>
-    <row r="703" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="703">
       <c r="C703" s="3"/>
     </row>
-    <row r="704" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="704">
       <c r="C704" s="3"/>
     </row>
-    <row r="705" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="705">
       <c r="C705" s="3"/>
     </row>
-    <row r="706" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="706">
       <c r="C706" s="3"/>
     </row>
-    <row r="707" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="707">
       <c r="C707" s="3"/>
     </row>
-    <row r="708" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="708">
       <c r="C708" s="3"/>
     </row>
-    <row r="709" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="709">
       <c r="C709" s="3"/>
     </row>
-    <row r="710" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="710">
       <c r="C710" s="3"/>
     </row>
-    <row r="711" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="711">
       <c r="C711" s="3"/>
     </row>
-    <row r="712" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="712">
       <c r="C712" s="3"/>
     </row>
-    <row r="713" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="713">
       <c r="C713" s="3"/>
     </row>
-    <row r="714" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="714">
       <c r="C714" s="3"/>
     </row>
-    <row r="715" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="715">
       <c r="C715" s="3"/>
     </row>
-    <row r="716" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="716">
       <c r="C716" s="3"/>
     </row>
-    <row r="717" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="717">
       <c r="C717" s="3"/>
     </row>
-    <row r="718" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="718">
       <c r="C718" s="3"/>
     </row>
-    <row r="719" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="719">
       <c r="C719" s="3"/>
     </row>
-    <row r="720" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="720">
       <c r="C720" s="3"/>
     </row>
-    <row r="721" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="721">
       <c r="C721" s="3"/>
     </row>
-    <row r="722" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="722">
       <c r="C722" s="3"/>
     </row>
-    <row r="723" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="723">
       <c r="C723" s="3"/>
     </row>
-    <row r="724" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="724">
       <c r="C724" s="3"/>
     </row>
-    <row r="725" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="725">
       <c r="C725" s="3"/>
     </row>
-    <row r="726" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="726">
       <c r="C726" s="3"/>
     </row>
-    <row r="727" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="727">
       <c r="C727" s="3"/>
     </row>
-    <row r="728" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="728">
       <c r="C728" s="3"/>
     </row>
-    <row r="729" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="729">
       <c r="C729" s="3"/>
     </row>
-    <row r="730" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="730">
       <c r="C730" s="3"/>
     </row>
-    <row r="731" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="731">
       <c r="C731" s="3"/>
     </row>
-    <row r="732" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="732">
       <c r="C732" s="3"/>
     </row>
-    <row r="733" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="733">
       <c r="C733" s="3"/>
     </row>
-    <row r="734" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="734">
       <c r="C734" s="3"/>
     </row>
-    <row r="735" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="735">
       <c r="C735" s="3"/>
     </row>
-    <row r="736" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="736">
       <c r="C736" s="3"/>
     </row>
-    <row r="737" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="737">
       <c r="C737" s="3"/>
     </row>
-    <row r="738" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="738">
       <c r="C738" s="3"/>
     </row>
-    <row r="739" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="739">
       <c r="C739" s="3"/>
     </row>
-    <row r="740" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="740">
       <c r="C740" s="3"/>
     </row>
-    <row r="741" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="741">
       <c r="C741" s="3"/>
     </row>
-    <row r="742" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="742">
       <c r="C742" s="3"/>
     </row>
-    <row r="743" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="743">
       <c r="C743" s="3"/>
     </row>
-    <row r="744" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="744">
       <c r="C744" s="3"/>
     </row>
-    <row r="745" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="745">
       <c r="C745" s="3"/>
     </row>
-    <row r="746" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="746">
       <c r="C746" s="3"/>
     </row>
-    <row r="747" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="747">
       <c r="C747" s="3"/>
     </row>
-    <row r="748" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="748">
       <c r="C748" s="3"/>
     </row>
-    <row r="749" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="749">
       <c r="C749" s="3"/>
     </row>
-    <row r="750" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="750">
       <c r="C750" s="3"/>
     </row>
-    <row r="751" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="751">
       <c r="C751" s="3"/>
     </row>
-    <row r="752" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="752">
       <c r="C752" s="3"/>
     </row>
-    <row r="753" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="753">
       <c r="C753" s="3"/>
     </row>
-    <row r="754" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="754">
       <c r="C754" s="3"/>
     </row>
-    <row r="755" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="755">
       <c r="C755" s="3"/>
     </row>
-    <row r="756" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="756">
       <c r="C756" s="3"/>
     </row>
-    <row r="757" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="757">
       <c r="C757" s="3"/>
     </row>
-    <row r="758" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="758">
       <c r="C758" s="3"/>
     </row>
-    <row r="759" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="759">
       <c r="C759" s="3"/>
     </row>
-    <row r="760" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="760">
       <c r="C760" s="3"/>
     </row>
-    <row r="761" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="761">
       <c r="C761" s="3"/>
     </row>
-    <row r="762" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="762">
       <c r="C762" s="3"/>
     </row>
-    <row r="763" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="763">
       <c r="C763" s="3"/>
     </row>
-    <row r="764" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="764">
       <c r="C764" s="3"/>
     </row>
-    <row r="765" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="765">
       <c r="C765" s="3"/>
     </row>
-    <row r="766" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="766">
       <c r="C766" s="3"/>
     </row>
-    <row r="767" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="767">
       <c r="C767" s="3"/>
     </row>
-    <row r="768" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="768">
       <c r="C768" s="3"/>
     </row>
-    <row r="769" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="769">
       <c r="C769" s="3"/>
     </row>
-    <row r="770" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="770">
       <c r="C770" s="3"/>
     </row>
-    <row r="771" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="771">
       <c r="C771" s="3"/>
     </row>
-    <row r="772" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="772">
       <c r="C772" s="3"/>
     </row>
-    <row r="773" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="773">
       <c r="C773" s="3"/>
     </row>
-    <row r="774" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="774">
       <c r="C774" s="3"/>
     </row>
-    <row r="775" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="775">
       <c r="C775" s="3"/>
     </row>
-    <row r="776" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="776">
       <c r="C776" s="3"/>
     </row>
-    <row r="777" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="777">
       <c r="C777" s="3"/>
     </row>
-    <row r="778" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="778">
       <c r="C778" s="3"/>
     </row>
-    <row r="779" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="779">
       <c r="C779" s="3"/>
     </row>
-    <row r="780" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="780">
       <c r="C780" s="3"/>
     </row>
-    <row r="781" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="781">
       <c r="C781" s="3"/>
     </row>
-    <row r="782" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="782">
       <c r="C782" s="3"/>
     </row>
-    <row r="783" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="783">
       <c r="C783" s="3"/>
     </row>
-    <row r="784" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="784">
       <c r="C784" s="3"/>
     </row>
-    <row r="785" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="785">
       <c r="C785" s="3"/>
     </row>
-    <row r="786" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="786">
       <c r="C786" s="3"/>
     </row>
-    <row r="787" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="787">
       <c r="C787" s="3"/>
     </row>
-    <row r="788" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="788">
       <c r="C788" s="3"/>
     </row>
-    <row r="789" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="789">
       <c r="C789" s="3"/>
     </row>
-    <row r="790" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="790">
       <c r="C790" s="3"/>
     </row>
-    <row r="791" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="791">
       <c r="C791" s="3"/>
     </row>
-    <row r="792" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="792">
       <c r="C792" s="3"/>
     </row>
-    <row r="793" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="793">
       <c r="C793" s="3"/>
     </row>
-    <row r="794" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="794">
       <c r="C794" s="3"/>
     </row>
-    <row r="795" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="795">
       <c r="C795" s="3"/>
     </row>
-    <row r="796" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="796">
       <c r="C796" s="3"/>
     </row>
-    <row r="797" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="797">
       <c r="C797" s="3"/>
     </row>
-    <row r="798" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="798">
       <c r="C798" s="3"/>
     </row>
-    <row r="799" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="799">
       <c r="C799" s="3"/>
     </row>
-    <row r="800" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="800">
       <c r="C800" s="3"/>
     </row>
-    <row r="801" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="801">
       <c r="C801" s="3"/>
     </row>
-    <row r="802" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="802">
       <c r="C802" s="3"/>
     </row>
-    <row r="803" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="803">
       <c r="C803" s="3"/>
     </row>
-    <row r="804" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="804">
       <c r="C804" s="3"/>
     </row>
-    <row r="805" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="805">
       <c r="C805" s="3"/>
     </row>
-    <row r="806" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="806">
       <c r="C806" s="3"/>
     </row>
-    <row r="807" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="807">
       <c r="C807" s="3"/>
     </row>
-    <row r="808" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="808">
       <c r="C808" s="3"/>
     </row>
-    <row r="809" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="809">
       <c r="C809" s="3"/>
     </row>
-    <row r="810" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="810">
       <c r="C810" s="3"/>
     </row>
-    <row r="811" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="811">
       <c r="C811" s="3"/>
     </row>
-    <row r="812" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="812">
       <c r="C812" s="3"/>
     </row>
-    <row r="813" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="813">
       <c r="C813" s="3"/>
     </row>
-    <row r="814" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="814">
       <c r="C814" s="3"/>
     </row>
-    <row r="815" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="815">
       <c r="C815" s="3"/>
     </row>
-    <row r="816" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="816">
       <c r="C816" s="3"/>
     </row>
-    <row r="817" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="817">
       <c r="C817" s="3"/>
     </row>
-    <row r="818" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="818">
       <c r="C818" s="3"/>
     </row>
-    <row r="819" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="819">
       <c r="C819" s="3"/>
     </row>
-    <row r="820" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="820">
       <c r="C820" s="3"/>
     </row>
-    <row r="821" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="821">
       <c r="C821" s="3"/>
     </row>
-    <row r="822" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="822">
       <c r="C822" s="3"/>
     </row>
-    <row r="823" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="823">
       <c r="C823" s="3"/>
     </row>
-    <row r="824" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="824">
       <c r="C824" s="3"/>
     </row>
-    <row r="825" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="825">
       <c r="C825" s="3"/>
     </row>
-    <row r="826" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="826">
       <c r="C826" s="3"/>
     </row>
-    <row r="827" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="827">
       <c r="C827" s="3"/>
     </row>
-    <row r="828" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="828">
       <c r="C828" s="3"/>
     </row>
-    <row r="829" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="829">
       <c r="C829" s="3"/>
     </row>
-    <row r="830" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="830">
       <c r="C830" s="3"/>
     </row>
-    <row r="831" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="831">
       <c r="C831" s="3"/>
     </row>
-    <row r="832" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="832">
       <c r="C832" s="3"/>
     </row>
-    <row r="833" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="833">
       <c r="C833" s="3"/>
     </row>
-    <row r="834" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="834">
       <c r="C834" s="3"/>
     </row>
-    <row r="835" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="835">
       <c r="C835" s="3"/>
     </row>
-    <row r="836" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="836">
       <c r="C836" s="3"/>
     </row>
-    <row r="837" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="837">
       <c r="C837" s="3"/>
     </row>
-    <row r="838" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="838">
       <c r="C838" s="3"/>
     </row>
-    <row r="839" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="839">
       <c r="C839" s="3"/>
     </row>
-    <row r="840" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="840">
       <c r="C840" s="3"/>
     </row>
-    <row r="841" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="841">
       <c r="C841" s="3"/>
     </row>
-    <row r="842" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="842">
       <c r="C842" s="3"/>
     </row>
-    <row r="843" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="843">
       <c r="C843" s="3"/>
     </row>
-    <row r="844" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="844">
       <c r="C844" s="3"/>
     </row>
-    <row r="845" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="845">
       <c r="C845" s="3"/>
     </row>
-    <row r="846" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="846">
       <c r="C846" s="3"/>
     </row>
-    <row r="847" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="847">
       <c r="C847" s="3"/>
     </row>
-    <row r="848" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="848">
       <c r="C848" s="3"/>
     </row>
-    <row r="849" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="849">
       <c r="C849" s="3"/>
     </row>
-    <row r="850" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="850">
       <c r="C850" s="3"/>
     </row>
-    <row r="851" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="851">
       <c r="C851" s="3"/>
     </row>
-    <row r="852" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="852">
       <c r="C852" s="3"/>
     </row>
-    <row r="853" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="853">
       <c r="C853" s="3"/>
     </row>
-    <row r="854" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="854">
       <c r="C854" s="3"/>
     </row>
-    <row r="855" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="855">
       <c r="C855" s="3"/>
     </row>
-    <row r="856" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="856">
       <c r="C856" s="3"/>
     </row>
-    <row r="857" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="857">
       <c r="C857" s="3"/>
     </row>
-    <row r="858" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="858">
       <c r="C858" s="3"/>
     </row>
-    <row r="859" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="859">
       <c r="C859" s="3"/>
     </row>
-    <row r="860" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="860">
       <c r="C860" s="3"/>
     </row>
-    <row r="861" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="861">
       <c r="C861" s="3"/>
     </row>
-    <row r="862" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="862">
       <c r="C862" s="3"/>
     </row>
-    <row r="863" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="863">
       <c r="C863" s="3"/>
     </row>
-    <row r="864" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="864">
       <c r="C864" s="3"/>
     </row>
-    <row r="865" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="865">
       <c r="C865" s="3"/>
     </row>
-    <row r="866" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="866">
       <c r="C866" s="3"/>
     </row>
-    <row r="867" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="867">
       <c r="C867" s="3"/>
     </row>
-    <row r="868" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="868">
       <c r="C868" s="3"/>
     </row>
-    <row r="869" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="869">
       <c r="C869" s="3"/>
     </row>
-    <row r="870" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="870">
       <c r="C870" s="3"/>
     </row>
-    <row r="871" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="871">
       <c r="C871" s="3"/>
     </row>
-    <row r="872" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="872">
       <c r="C872" s="3"/>
     </row>
-    <row r="873" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="873">
       <c r="C873" s="3"/>
     </row>
-    <row r="874" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="874">
       <c r="C874" s="3"/>
     </row>
-    <row r="875" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="875">
       <c r="C875" s="3"/>
     </row>
-    <row r="876" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="876">
       <c r="C876" s="3"/>
     </row>
-    <row r="877" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="877">
       <c r="C877" s="3"/>
     </row>
-    <row r="878" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="878">
       <c r="C878" s="3"/>
     </row>
-    <row r="879" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="879">
       <c r="C879" s="3"/>
     </row>
-    <row r="880" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="880">
       <c r="C880" s="3"/>
     </row>
-    <row r="881" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="881">
       <c r="C881" s="3"/>
     </row>
-    <row r="882" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="882">
       <c r="C882" s="3"/>
     </row>
-    <row r="883" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="883">
       <c r="C883" s="3"/>
     </row>
-    <row r="884" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="884">
       <c r="C884" s="3"/>
     </row>
-    <row r="885" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="885">
       <c r="C885" s="3"/>
     </row>
-    <row r="886" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="886">
       <c r="C886" s="3"/>
     </row>
-    <row r="887" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="887">
       <c r="C887" s="3"/>
     </row>
-    <row r="888" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="888">
       <c r="C888" s="3"/>
     </row>
-    <row r="889" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="889">
       <c r="C889" s="3"/>
     </row>
-    <row r="890" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="890">
       <c r="C890" s="3"/>
     </row>
-    <row r="891" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="891">
       <c r="C891" s="3"/>
     </row>
-    <row r="892" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="892">
       <c r="C892" s="3"/>
     </row>
-    <row r="893" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="893">
       <c r="C893" s="3"/>
     </row>
-    <row r="894" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="894">
       <c r="C894" s="3"/>
     </row>
-    <row r="895" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="895">
       <c r="C895" s="3"/>
     </row>
-    <row r="896" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="896">
       <c r="C896" s="3"/>
     </row>
-    <row r="897" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="897">
       <c r="C897" s="3"/>
     </row>
-    <row r="898" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="898">
       <c r="C898" s="3"/>
     </row>
-    <row r="899" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="899">
       <c r="C899" s="3"/>
     </row>
-    <row r="900" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="900">
       <c r="C900" s="3"/>
     </row>
-    <row r="901" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="901">
       <c r="C901" s="3"/>
     </row>
-    <row r="902" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="902">
       <c r="C902" s="3"/>
     </row>
-    <row r="903" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="903">
       <c r="C903" s="3"/>
     </row>
-    <row r="904" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="904">
       <c r="C904" s="3"/>
     </row>
-    <row r="905" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="905">
       <c r="C905" s="3"/>
     </row>
-    <row r="906" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="906">
       <c r="C906" s="3"/>
     </row>
-    <row r="907" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="907">
       <c r="C907" s="3"/>
     </row>
-    <row r="908" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="908">
       <c r="C908" s="3"/>
     </row>
-    <row r="909" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="909">
       <c r="C909" s="3"/>
     </row>
-    <row r="910" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="910">
       <c r="C910" s="3"/>
     </row>
-    <row r="911" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="911">
       <c r="C911" s="3"/>
     </row>
-    <row r="912" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="912">
       <c r="C912" s="3"/>
     </row>
-    <row r="913" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="913">
       <c r="C913" s="3"/>
     </row>
-    <row r="914" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="914">
       <c r="C914" s="3"/>
     </row>
-    <row r="915" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="915">
       <c r="C915" s="3"/>
     </row>
-    <row r="916" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="916">
       <c r="C916" s="3"/>
     </row>
-    <row r="917" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="917">
       <c r="C917" s="3"/>
     </row>
-    <row r="918" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="918">
       <c r="C918" s="3"/>
     </row>
-    <row r="919" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="919">
       <c r="C919" s="3"/>
     </row>
-    <row r="920" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="920">
       <c r="C920" s="3"/>
     </row>
-    <row r="921" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="921">
       <c r="C921" s="3"/>
     </row>
-    <row r="922" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="922">
       <c r="C922" s="3"/>
     </row>
-    <row r="923" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="923">
       <c r="C923" s="3"/>
     </row>
-    <row r="924" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="924">
       <c r="C924" s="3"/>
     </row>
-    <row r="925" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="925">
       <c r="C925" s="3"/>
     </row>
-    <row r="926" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="926">
       <c r="C926" s="3"/>
     </row>
-    <row r="927" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="927">
       <c r="C927" s="3"/>
     </row>
-    <row r="928" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="928">
       <c r="C928" s="3"/>
     </row>
-    <row r="929" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="929">
       <c r="C929" s="3"/>
     </row>
-    <row r="930" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="930">
       <c r="C930" s="3"/>
     </row>
-    <row r="931" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="931">
       <c r="C931" s="3"/>
     </row>
-    <row r="932" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="932">
       <c r="C932" s="3"/>
     </row>
-    <row r="933" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="933">
       <c r="C933" s="3"/>
     </row>
-    <row r="934" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="934">
       <c r="C934" s="3"/>
     </row>
-    <row r="935" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="935">
       <c r="C935" s="3"/>
     </row>
-    <row r="936" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="936">
       <c r="C936" s="3"/>
     </row>
-    <row r="937" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="937">
       <c r="C937" s="3"/>
     </row>
-    <row r="938" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="938">
       <c r="C938" s="3"/>
     </row>
-    <row r="939" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="939">
       <c r="C939" s="3"/>
     </row>
-    <row r="940" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="940">
       <c r="C940" s="3"/>
     </row>
-    <row r="941" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="941">
       <c r="C941" s="3"/>
     </row>
-    <row r="942" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="942">
       <c r="C942" s="3"/>
     </row>
-    <row r="943" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="943">
       <c r="C943" s="3"/>
     </row>
-    <row r="944" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="944">
       <c r="C944" s="3"/>
     </row>
-    <row r="945" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="945">
       <c r="C945" s="3"/>
     </row>
-    <row r="946" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="946">
       <c r="C946" s="3"/>
     </row>
-    <row r="947" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="947">
       <c r="C947" s="3"/>
     </row>
-    <row r="948" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="948">
       <c r="C948" s="3"/>
     </row>
-    <row r="949" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="949">
       <c r="C949" s="3"/>
     </row>
-    <row r="950" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="950">
       <c r="C950" s="3"/>
     </row>
-    <row r="951" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="951">
       <c r="C951" s="3"/>
     </row>
-    <row r="952" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="952">
       <c r="C952" s="3"/>
     </row>
-    <row r="953" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="953">
       <c r="C953" s="3"/>
     </row>
-    <row r="954" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="954">
       <c r="C954" s="3"/>
     </row>
-    <row r="955" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="955">
       <c r="C955" s="3"/>
     </row>
-    <row r="956" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="956">
       <c r="C956" s="3"/>
     </row>
-    <row r="957" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="957">
       <c r="C957" s="3"/>
     </row>
-    <row r="958" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="958">
       <c r="C958" s="3"/>
     </row>
-    <row r="959" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="959">
       <c r="C959" s="3"/>
     </row>
-    <row r="960" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="960">
       <c r="C960" s="3"/>
     </row>
-    <row r="961" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="961">
       <c r="C961" s="3"/>
     </row>
-    <row r="962" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="962">
       <c r="C962" s="3"/>
     </row>
-    <row r="963" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="963">
       <c r="C963" s="3"/>
     </row>
-    <row r="964" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="964">
       <c r="C964" s="3"/>
     </row>
-    <row r="965" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="965">
       <c r="C965" s="3"/>
     </row>
-    <row r="966" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="966">
       <c r="C966" s="3"/>
     </row>
-    <row r="967" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="967">
       <c r="C967" s="3"/>
     </row>
-    <row r="968" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="968">
       <c r="C968" s="3"/>
     </row>
-    <row r="969" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="969">
       <c r="C969" s="3"/>
     </row>
-    <row r="970" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="970">
       <c r="C970" s="3"/>
     </row>
-    <row r="971" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="971">
       <c r="C971" s="3"/>
     </row>
-    <row r="972" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="972">
       <c r="C972" s="3"/>
     </row>
-    <row r="973" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="973">
       <c r="C973" s="3"/>
     </row>
-    <row r="974" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="974">
       <c r="C974" s="3"/>
     </row>
-    <row r="975" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="975">
       <c r="C975" s="3"/>
     </row>
-    <row r="976" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="976">
       <c r="C976" s="3"/>
     </row>
-    <row r="977" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="977">
       <c r="C977" s="3"/>
     </row>
-    <row r="978" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="978">
       <c r="C978" s="3"/>
     </row>
-    <row r="979" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="979">
       <c r="C979" s="3"/>
     </row>
-    <row r="980" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="980">
       <c r="C980" s="3"/>
     </row>
-    <row r="981" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="981">
       <c r="C981" s="3"/>
     </row>
-    <row r="982" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="982">
       <c r="C982" s="3"/>
     </row>
-    <row r="983" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="983">
       <c r="C983" s="3"/>
     </row>
-    <row r="984" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="984">
       <c r="C984" s="3"/>
     </row>
-    <row r="985" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="985">
       <c r="C985" s="3"/>
     </row>
-    <row r="986" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="986">
       <c r="C986" s="3"/>
     </row>
-    <row r="987" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="987">
       <c r="C987" s="3"/>
     </row>
-    <row r="988" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="988">
       <c r="C988" s="3"/>
     </row>
-    <row r="989" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="989">
       <c r="C989" s="3"/>
     </row>
-    <row r="990" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="990">
       <c r="C990" s="3"/>
     </row>
-    <row r="991" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="991">
       <c r="C991" s="3"/>
     </row>
-    <row r="992" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="992">
       <c r="C992" s="3"/>
     </row>
-    <row r="993" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="993">
       <c r="C993" s="3"/>
     </row>
-    <row r="994" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="994">
       <c r="C994" s="3"/>
     </row>
-    <row r="995" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="995">
       <c r="C995" s="3"/>
     </row>
-    <row r="996" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="996">
       <c r="C996" s="3"/>
     </row>
-    <row r="997" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="997">
       <c r="C997" s="3"/>
     </row>
-    <row r="998" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="998">
       <c r="C998" s="3"/>
     </row>
-    <row r="999" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="999">
       <c r="C999" s="3"/>
     </row>
-    <row r="1000" spans="3:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000">
       <c r="C1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="85.1640625" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="85.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/import/intro_event.xlsx
+++ b/app/import/intro_event.xlsx
@@ -21,9 +21,39 @@
     <t>title</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>lyric</t>
   </si>
   <si>
+    <t>홍재목</t>
+  </si>
+  <si>
+    <t>O.O.O</t>
+  </si>
+  <si>
+    <t>참깨와 솜사탕</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>이나래</t>
+  </si>
+  <si>
+    <t>짙은</t>
+  </si>
+  <si>
+    <t>헤르쯔 아날로그</t>
+  </si>
+  <si>
+    <t>스트레이</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는&lt;br&gt;사계절의 변화만큼이나&lt;br&gt; 다채롭고 싱그러워&lt;br&gt;지칠 줄 모르는 &lt;청춘&gt;과&lt;br&gt;닮아있습니다.</t>
+  </si>
+  <si>
     <t>type_id</t>
   </si>
   <si>
@@ -33,154 +63,124 @@
     <t>청춘(靑春)</t>
   </si>
   <si>
-    <t>한 뼘만큼 자란 내 마음이
+    <t>당신의 36.5도는&lt;br&gt;&lt;텅&gt; 빈 외로움을 채워줄&lt;br&gt;감각적인 유혹을 갈망하는&lt;br&gt;성향을 띄고 있습니다.</t>
+  </si>
+  <si>
+    <t>한 뼘만큼 자란 내 마음이&lt;br&gt;
 시가 되어 울리던 날들</t>
   </si>
   <si>
+    <t>당신의 36.5도는&lt;br&gt;말 한마디 웃음 하나로&lt;br&gt;전해지는 사랑의&lt;br&gt;&lt;따뜻한 것&gt;을 향하고&lt;br&gt;있습니다.</t>
+  </si>
+  <si>
     <t>너와의 달밤을</t>
   </si>
   <si>
-    <t>우리의 밤을 상상하네 별빛 가득한
+    <t>우리의 밤을 상상하네 별빛 가득한&lt;br&gt;
 꿈같은 그날을 그 너와의 달밤을</t>
   </si>
   <si>
+    <t>당신의 36.5도는 하늘의&lt;br&gt;구름을 통해 마음을 전하는&lt;br&gt;&lt;공중일기(空中日記)&gt;처럼&lt;br&gt;섬세하군요.</t>
+  </si>
+  <si>
     <t>첫눈</t>
   </si>
   <si>
-    <t>이 세상에 눈으로 오는 날 바람결에 흩어져 간대도
-잡은 두 손 꼭 놓치지 말자 어디로든 함께 떠나자</t>
+    <t>이 세상에 눈으로 오는 날 바람결에&lt;br&gt;흩어져 간대도
+잡은 두 손 꼭 놓치지 말자&lt;br&gt;어디로든 함께 떠나자</t>
+  </si>
+  <si>
+    <t>어둡고 고요한 밤과도 같은&lt;br&gt; 진한 그리움을 간직한 당신의&lt;br&gt;36.5도는 &lt;첫눈&gt;을&lt;br&gt;떠올리게 합니다.</t>
   </si>
   <si>
     <t>Eyes on me</t>
   </si>
   <si>
-    <t xml:space="preserve">너와 나 사이는 망가졌지만 우리 사랑은 
+    <t xml:space="preserve">너와 나 사이는 망가졌지만 우리 사랑은&lt;br&gt; 
 서로를 가질 수 없어 바라보기만 해 </t>
   </si>
   <si>
+    <t>뜨겁도록 벅찬 사랑의 감정을&lt;br&gt;지닌 당신은 &lt;너와의 달밤을&gt;꿈꾸는&lt;br&gt;36.5도 낭만파이십니다.</t>
+  </si>
+  <si>
     <t>텅</t>
   </si>
   <si>
-    <t xml:space="preserve">텅 나의 외로운 마음속
-잔잔했던 호수에 깊은 파동이 생기고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가장 약한 모습이 모자란 결핍이 
+    <t xml:space="preserve">텅 나의 외로운 마음속 잔잔했던 호수에&lt;br&gt;
+깊은 파동이 생기고 </t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 본능적이고&lt;br&gt;감각적인 성향을 지닌&lt;br&gt; &lt;Eyes on me&gt;와&lt;br&gt;잘 어울리는군요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가장 약한 모습이 모자란 결핍이&lt;br&gt; 
 내겐 사랑이었고 봄이었던 시절 </t>
   </si>
   <si>
     <t>따뜻한 것</t>
   </si>
   <si>
-    <t>세상의 말들은 너무 닳고 닳아서
+    <t>세상의 말들은 너무 닳고 닳아서&lt;br&gt;
 그댄 그 말을 뱉길 주저하고 있나요</t>
   </si>
   <si>
-    <t xml:space="preserve">텅 나의 텅 빈 동굴 속 
+    <t xml:space="preserve">텅 나의 텅 빈 동굴 속&lt;br&gt; 
 고요했던 어둠을 밝혀주는 눈동자 </t>
   </si>
   <si>
-    <t>괜찮아 그대가 표현하지 않아도
+    <t>괜찮아 그대가 표현하지 않아도&lt;br&gt;
 그대가 웃어주면 나는 알 수 있어요</t>
   </si>
   <si>
     <t>공중일기(空中日記)</t>
   </si>
   <si>
-    <t>저 하늘을 건너 어디쯤 온 걸까
+    <t>저 하늘을 건너 어디쯤 온 걸까&lt;br&gt;
 수많은 밤을 지나온 순간 이제 너에게로</t>
   </si>
   <si>
-    <t>I really hope this thing is just a dream just a dream 
-I really want you feel easy with this feel easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너의 tongue 부드럽게 날 위로하네 
+    <t>I really hope this thing is just a dream&lt;br&gt;
+just a dream I really want you&lt;br&gt;feel easywith this feel easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너의 tongue 부드럽게 날 위로하네&lt;br&gt;  
 그 물결 따라 천천히 번져가는 너의 향기 </t>
   </si>
   <si>
-    <t>아침이 와 이젠 사라져야 해 모든 게 녹아 흘러가겠지만
-어제 추던 그 춤을 기억해 다시 만나는 그날까지</t>
-  </si>
-  <si>
-    <t>세상 사람들은 그들이 정한 공식 속에
+    <t>아침이 와 이젠 사라져야 해 모든 게&lt;br&gt;녹아 흘러가겠지만
+어제 추던 그 춤을&lt;br&gt;기억해다시 만나는 그날까지</t>
+  </si>
+  <si>
+    <t>세상 사람들은 그들이 정한 공식 속에&lt;br&gt; 
 우리를 넣고서 사랑이 아니라 해요</t>
   </si>
   <si>
-    <t>바람이 거세지면 어디론가 흩어져 함께했던 기억도 잊겠지
-바닥에 던져져서 다시 만나게 되면 그땐 나를 알는지</t>
-  </si>
-  <si>
-    <t>다시 부서지는 저 바람처럼
+    <t>바람이 거세지면 어디론가 흩어져&lt;br&gt;함께했던 기억도 잊겠지
+바닥에 던져져서&lt;br&gt; 다시 만나게 되면 그땐 나를 알는지</t>
+  </si>
+  <si>
+    <t>다시 부서지는 저 바람처럼&lt;br&gt; 
 너를 그리고 간 저 별들처럼</t>
   </si>
   <si>
-    <t>가도 가도 끝이 안 보이던 어둡고 캄캄했던 내 앞에
-한 번도 경험해 본 적 없던 사랑이 찾아온 거야</t>
-  </si>
-  <si>
-    <t>바람이 좋은 날 더 가까이 느껴지는 걸
+    <t>가도 가도 끝이 안 보이던 어둡고&lt;br&gt;캄캄했던 내 앞에
+한 번도 경험해 본 적&lt;br&gt;없던 사랑이 찾아온 거야</t>
+  </si>
+  <si>
+    <t>바람이 좋은 날 더 가까이 느껴지는 걸&lt;br&gt; 
 말하고 싶은 건 내 손끝을 따라가</t>
   </si>
   <si>
-    <t>Your eyes like hold me hold me 
-넌 우리 사이를 스쳐갔어 눈을 가리고 날 봤어</t>
-  </si>
-  <si>
-    <t>밑도 끝도 없이 날 찾아오는 시린 고독과 외로움도
-네가 내 곁에서 지켜준다면 훨씬 더 나을 거야</t>
-  </si>
-  <si>
-    <t>내 주위에 맴도는 것들 가벼워지고
+    <t>Your eyes like hold me hold me&lt;br&gt;  
+넌 우리 사이를 스쳐갔어&lt;br&gt;눈을 가리고 날 봤어</t>
+  </si>
+  <si>
+    <t>밑도 끝도 없이 날 찾아오는 시린 고독과&lt;br&gt;외로움도
+네가 내 곁에서 지켜준다면&lt;br&gt;훨씬 더 나을 거야</t>
+  </si>
+  <si>
+    <t>내 주위에 맴도는 것들 가벼워지고&lt;br&gt; 
 내려앉은 작은 새가 전해주길</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>홍재목</t>
-  </si>
-  <si>
-    <t>O.O.O</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 사계절의 변화만큼이나 다채롭고 싱그러워 지칠 줄 모르는 &lt;b&gt;청춘&lt;/b&gt;과 닮아있습니다.</t>
-  </si>
-  <si>
-    <t>참깨와 솜사탕</t>
-  </si>
-  <si>
-    <t>이나래</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 &lt;b&gt;텅&lt;/b&gt; 빈 외로움을 채워줄 감각적인 유혹을 갈망하는 성향을 띄고 있습니다.</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 말 한마디 웃음하나로 전해지는 사랑의 &lt;b&gt;따뜻한 것&lt;/b&gt;을 향하고 있습니다.</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 하늘의 구름을 통해 마음을 전하는 &lt;b&gt;공중일기(空中日記)&lt;/b&gt;처럼 섬세하군요.</t>
-  </si>
-  <si>
-    <t>짙은</t>
-  </si>
-  <si>
-    <t>어둡고 고요한 밤과도 같은 진한 그리움을 간직한 당신의 36.5도는 &lt;b&gt;첫눈&lt;/b&gt;을 떠올리게 합니다.</t>
-  </si>
-  <si>
-    <t>헤르쯔 아날로그</t>
-  </si>
-  <si>
-    <t>뜨겁도록 벅찬 사랑의 감정을 지닌 당신은 &lt;b&gt;너와의 달밤을&lt;/b&gt; 꿈꾸는 36.5도 낭만파이십니다.</t>
-  </si>
-  <si>
-    <t>스트레이</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는 본능적이고 감각적인 성향을 지닌 &lt;b&gt;Eyes on me&lt;/b&gt;와 잘 어울리는군요.</t>
   </si>
 </sst>
 </file>
@@ -266,13 +266,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -280,10 +280,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -297,10 +297,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>6.0</v>
@@ -314,10 +314,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>5.0</v>
@@ -331,10 +331,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -348,10 +348,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
@@ -365,10 +365,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -382,10 +382,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -399,10 +399,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>2.0</v>
@@ -416,10 +416,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>3.0</v>
@@ -433,10 +433,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>4.0</v>
@@ -450,10 +450,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>7.0</v>
@@ -467,10 +467,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>2.0</v>
@@ -484,10 +484,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>5.0</v>
@@ -501,10 +501,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>3.0</v>
@@ -518,10 +518,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>5.0</v>
@@ -535,10 +535,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
@@ -552,10 +552,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>6.0</v>
@@ -569,10 +569,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
@@ -586,10 +586,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1">
         <v>7.0</v>
@@ -603,10 +603,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
         <v>6.0</v>
@@ -620,10 +620,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>4.0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -3591,7 +3591,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3599,7 +3599,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3607,7 +3607,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3615,7 +3615,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3623,7 +3623,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3631,7 +3631,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3639,7 +3639,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -3673,10 +3673,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -3684,10 +3684,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -3695,10 +3695,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -3706,10 +3706,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -3717,10 +3717,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -3728,10 +3728,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/app/import/intro_event.xlsx
+++ b/app/import/intro_event.xlsx
@@ -21,39 +21,9 @@
     <t>title</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>lyric</t>
   </si>
   <si>
-    <t>홍재목</t>
-  </si>
-  <si>
-    <t>O.O.O</t>
-  </si>
-  <si>
-    <t>참깨와 솜사탕</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>이나래</t>
-  </si>
-  <si>
-    <t>짙은</t>
-  </si>
-  <si>
-    <t>헤르쯔 아날로그</t>
-  </si>
-  <si>
-    <t>스트레이</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는&lt;br&gt;사계절의 변화만큼이나&lt;br&gt; 다채롭고 싱그러워&lt;br&gt;지칠 줄 모르는 &lt;청춘&gt;과&lt;br&gt;닮아있습니다.</t>
-  </si>
-  <si>
     <t>type_id</t>
   </si>
   <si>
@@ -61,18 +31,12 @@
   </si>
   <si>
     <t>청춘(靑春)</t>
-  </si>
-  <si>
-    <t>당신의 36.5도는&lt;br&gt;&lt;텅&gt; 빈 외로움을 채워줄&lt;br&gt;감각적인 유혹을 갈망하는&lt;br&gt;성향을 띄고 있습니다.</t>
   </si>
   <si>
     <t>한 뼘만큼 자란 내 마음이&lt;br&gt;
 시가 되어 울리던 날들</t>
   </si>
   <si>
-    <t>당신의 36.5도는&lt;br&gt;말 한마디 웃음 하나로&lt;br&gt;전해지는 사랑의&lt;br&gt;&lt;따뜻한 것&gt;을 향하고&lt;br&gt;있습니다.</t>
-  </si>
-  <si>
     <t>너와의 달밤을</t>
   </si>
   <si>
@@ -80,9 +44,6 @@
 꿈같은 그날을 그 너와의 달밤을</t>
   </si>
   <si>
-    <t>당신의 36.5도는 하늘의&lt;br&gt;구름을 통해 마음을 전하는&lt;br&gt;&lt;공중일기(空中日記)&gt;처럼&lt;br&gt;섬세하군요.</t>
-  </si>
-  <si>
     <t>첫눈</t>
   </si>
   <si>
@@ -90,9 +51,6 @@
 잡은 두 손 꼭 놓치지 말자&lt;br&gt;어디로든 함께 떠나자</t>
   </si>
   <si>
-    <t>어둡고 고요한 밤과도 같은&lt;br&gt; 진한 그리움을 간직한 당신의&lt;br&gt;36.5도는 &lt;첫눈&gt;을&lt;br&gt;떠올리게 합니다.</t>
-  </si>
-  <si>
     <t>Eyes on me</t>
   </si>
   <si>
@@ -100,9 +58,6 @@
 서로를 가질 수 없어 바라보기만 해 </t>
   </si>
   <si>
-    <t>뜨겁도록 벅찬 사랑의 감정을&lt;br&gt;지닌 당신은 &lt;너와의 달밤을&gt;꿈꾸는&lt;br&gt;36.5도 낭만파이십니다.</t>
-  </si>
-  <si>
     <t>텅</t>
   </si>
   <si>
@@ -110,9 +65,6 @@
 깊은 파동이 생기고 </t>
   </si>
   <si>
-    <t>당신의 36.5도는 본능적이고&lt;br&gt;감각적인 성향을 지닌&lt;br&gt; &lt;Eyes on me&gt;와&lt;br&gt;잘 어울리는군요.</t>
-  </si>
-  <si>
     <t xml:space="preserve">가장 약한 모습이 모자란 결핍이&lt;br&gt; 
 내겐 사랑이었고 봄이었던 시절 </t>
   </si>
@@ -140,7 +92,7 @@
   </si>
   <si>
     <t>I really hope this thing is just a dream&lt;br&gt;
-just a dream I really want you&lt;br&gt;feel easywith this feel easy</t>
+just a dream I really want you&lt;br&gt;feel easy with this feel easy</t>
   </si>
   <si>
     <t xml:space="preserve">너의 tongue 부드럽게 날 위로하네&lt;br&gt;  
@@ -181,6 +133,54 @@
   <si>
     <t>내 주위에 맴도는 것들 가벼워지고&lt;br&gt; 
 내려앉은 작은 새가 전해주길</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>홍재목</t>
+  </si>
+  <si>
+    <t>O.O.O</t>
+  </si>
+  <si>
+    <t>참깨와 솜사탕</t>
+  </si>
+  <si>
+    <t>이나래</t>
+  </si>
+  <si>
+    <t>짙은</t>
+  </si>
+  <si>
+    <t>헤르쯔 아날로그</t>
+  </si>
+  <si>
+    <t>스트레이</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는&lt;br&gt;사계절의 변화만큼이나&lt;br&gt; 다채롭고 싱그러워&lt;br&gt;지칠 줄 모르는 &lt;청춘&gt;과&lt;br&gt;닮아있습니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는&lt;br&gt;&lt;텅&gt; 빈 외로움을 채워줄&lt;br&gt;감각적인 유혹을 갈망하는&lt;br&gt;성향을 띄고 있습니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는&lt;br&gt;말 한마디 웃음 하나로&lt;br&gt;전해지는 사랑의&lt;br&gt;&lt;따뜻한 것&gt;을 향하고&lt;br&gt;있습니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 하늘의&lt;br&gt;구름을 통해 마음을 전하는&lt;br&gt;&lt;공중일기(空中日記)&gt;처럼&lt;br&gt;섬세하군요.</t>
+  </si>
+  <si>
+    <t>어둡고 고요한 밤과도 같은&lt;br&gt; 진한 그리움을 간직한 당신의&lt;br&gt;36.5도는 &lt;첫눈&gt;을&lt;br&gt;떠올리게 합니다.</t>
+  </si>
+  <si>
+    <t>뜨겁도록 벅찬 사랑의 감정을&lt;br&gt;지닌 당신은 &lt;너와의 달밤을&gt;꿈꾸는&lt;br&gt;36.5도 낭만파이십니다.</t>
+  </si>
+  <si>
+    <t>당신의 36.5도는 본능적이고&lt;br&gt;감각적인 성향을 지닌&lt;br&gt; &lt;Eyes on me&gt;와&lt;br&gt;잘 어울리는군요.</t>
   </si>
 </sst>
 </file>
@@ -266,13 +266,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -280,10 +280,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
@@ -297,10 +297,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>6.0</v>
@@ -314,10 +314,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>5.0</v>
@@ -331,10 +331,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>7.0</v>
@@ -348,10 +348,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
@@ -365,10 +365,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -382,10 +382,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -399,10 +399,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>2.0</v>
@@ -416,10 +416,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3.0</v>
@@ -433,10 +433,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>4.0</v>
@@ -450,10 +450,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>7.0</v>
@@ -467,10 +467,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>2.0</v>
@@ -484,10 +484,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>5.0</v>
@@ -501,10 +501,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>3.0</v>
@@ -518,10 +518,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <v>5.0</v>
@@ -535,10 +535,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
@@ -552,10 +552,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>6.0</v>
@@ -569,10 +569,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>4.0</v>
@@ -586,10 +586,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <v>7.0</v>
@@ -603,10 +603,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>6.0</v>
@@ -620,10 +620,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>4.0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -3591,7 +3591,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -3599,7 +3599,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -3607,7 +3607,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -3615,7 +3615,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -3623,7 +3623,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -3631,7 +3631,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -3639,7 +3639,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -3673,10 +3673,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -3684,10 +3684,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -3695,10 +3695,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -3706,10 +3706,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -3717,10 +3717,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -3728,10 +3728,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
